--- a/Reports/Final Report/all the tables.xlsx
+++ b/Reports/Final Report/all the tables.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/492f06f61623a65f/ASU/2021 Spring/Capstone/ASU_Adidas_CapstoneProject/Reports/Final Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="11_F25DC773A252ABDACC10488E119940B45BDE58EE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E2A5671A-A112-42EC-B058-B465E3F31BB1}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="11_F25DC773A252ABDACC10488E119940B45BDE58EE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A2A5F811-4B77-4A4B-9042-A76F36AF2CDC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -459,9 +460,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,8 +551,15 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,8 +626,86 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC80000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -627,11 +713,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -645,78 +866,84 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -732,15 +959,43 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,13 +1004,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC80000"/>
+      <color rgb="FF8E0000"/>
       <color rgb="FFDA0000"/>
+      <color rgb="FFEA0000"/>
       <color rgb="FFB80000"/>
       <color rgb="FF820000"/>
-      <color rgb="FFC80000"/>
-      <color rgb="FFEA0000"/>
       <color rgb="FFB40000"/>
-      <color rgb="FF8E0000"/>
       <color rgb="FFFFCD2F"/>
       <color rgb="FFEEB000"/>
       <color rgb="FFFAB900"/>
@@ -817,6 +1072,194 @@
         <a:xfrm>
           <a:off x="11449050" y="3952875"/>
           <a:ext cx="6867525" cy="6238875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>26946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1000312</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1228725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Son Na-eun - Wikipedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE16084-2F9A-4191-B862-018C04A5F5FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3086099" y="979446"/>
+          <a:ext cx="962213" cy="1201779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>998220</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1225266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Interview: BLACKPINK on fashion, hobbies and their 2020 plans - L'Officiel">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADBE531-599E-466C-B639-5F0AF596B2AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3086100" y="2247901"/>
+          <a:ext cx="960120" cy="1187165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>999255</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1235964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Yoga With Adriene Brings the Yoga Studio to You: Local YouTube star offers  poses for the people - Screens - The Austin Chronicle">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E469AC-8DD5-4AC3-A8EB-C65B06D851DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3095625" y="3505200"/>
+          <a:ext cx="951630" cy="1197864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1103,7 +1546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E8:P19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E22" sqref="E22:F25"/>
     </sheetView>
   </sheetViews>
@@ -1114,10 +1557,10 @@
   </cols>
   <sheetData>
     <row r="8" spans="5:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="5:16" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E9" s="3" t="s">
@@ -1129,19 +1572,19 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="5:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>0.78316617012023904</v>
       </c>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="5:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>0.72559487819671598</v>
       </c>
       <c r="N11" s="1"/>
@@ -1150,10 +1593,10 @@
       </c>
     </row>
     <row r="12" spans="5:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>0.67263108491897505</v>
       </c>
       <c r="N12" s="1"/>
@@ -1169,10 +1612,10 @@
       </c>
     </row>
     <row r="15" spans="5:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="28"/>
       <c r="P15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1189,10 +1632,10 @@
       </c>
     </row>
     <row r="17" spans="5:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>0.75448459386825495</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -1200,18 +1643,18 @@
       </c>
     </row>
     <row r="18" spans="5:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>0.69489461183547896</v>
       </c>
     </row>
     <row r="19" spans="5:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>0.676122605800628</v>
       </c>
     </row>
@@ -1239,86 +1682,86 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="H5" s="14" t="s">
+      <c r="E5" s="30"/>
+      <c r="H5" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <v>0.69097125500000001</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>0.67195934310000005</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="H13" s="14" t="s">
+      <c r="E13" s="30"/>
+      <c r="H13" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="17">
         <v>0.69097125500000001</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>0.66643114800000003</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1335,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4169AE-4AA8-4534-B681-23B5A9F017A2}">
   <dimension ref="H9:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="M42" sqref="M42:N42"/>
     </sheetView>
   </sheetViews>
@@ -1346,158 +1789,158 @@
   </cols>
   <sheetData>
     <row r="9" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="23">
         <v>0.86954641455651105</v>
       </c>
     </row>
     <row r="12" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="25">
         <v>0.86557238351846999</v>
       </c>
     </row>
     <row r="13" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="25">
         <v>0.86326679413088103</v>
       </c>
     </row>
     <row r="18" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="23">
         <v>0.86557238351846999</v>
       </c>
     </row>
     <row r="21" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="25">
         <v>0.85614194298157498</v>
       </c>
     </row>
     <row r="22" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="25">
         <v>0.83499153546792304</v>
       </c>
     </row>
     <row r="29" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H32" s="32"/>
-      <c r="I32" s="28" t="s">
+      <c r="H32" s="34"/>
+      <c r="I32" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H33" s="32"/>
-      <c r="I33" s="28" t="s">
+      <c r="H33" s="34"/>
+      <c r="I33" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H34" s="32"/>
-      <c r="I34" s="26" t="s">
+      <c r="H34" s="34"/>
+      <c r="I34" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H36" s="33"/>
-      <c r="I36" s="34" t="s">
+      <c r="H36" s="35"/>
+      <c r="I36" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H37" s="33"/>
-      <c r="I37" s="34" t="s">
+      <c r="H37" s="35"/>
+      <c r="I37" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H38" s="33"/>
-      <c r="I38" s="35" t="s">
+      <c r="H38" s="35"/>
+      <c r="I38" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H39" s="33"/>
-      <c r="I39" s="34" t="s">
+      <c r="H39" s="35"/>
+      <c r="I39" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H40" s="28" t="s">
+      <c r="H40" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="28" t="s">
+      <c r="I40" s="25" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1505,38 +1948,113 @@
       <c r="H41" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="35" t="s">
+      <c r="I41" s="27" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="H42" s="36"/>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="H43" s="36"/>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="26" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="H44" s="36"/>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="26" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H41:H44"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H31:H34"/>
     <mergeCell ref="H35:H39"/>
-    <mergeCell ref="H41:H44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07220858-8A85-43D6-956A-CC73D448E4E5}">
+  <dimension ref="F5:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="21" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="6:21" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="56"/>
+    </row>
+    <row r="7" spans="6:21" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="57"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="58"/>
+    </row>
+    <row r="8" spans="6:21" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="70"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Reports/Final Report/all the tables.xlsx
+++ b/Reports/Final Report/all the tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/492f06f61623a65f/ASU/2021 Spring/Capstone/ASU_Adidas_CapstoneProject/Reports/Final Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="11_F25DC773A252ABDACC10488E119940B45BDE58EE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A2A5F811-4B77-4A4B-9042-A76F36AF2CDC}"/>
+  <xr:revisionPtr revIDLastSave="361" documentId="11_F25DC773A252ABDACC10488E119940B45BDE58EE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{17A6A62B-0FD4-419B-8B12-A87D5C653001}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,8 +558,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,6 +714,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -878,18 +909,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -928,39 +947,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -996,6 +982,72 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,16 +1056,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFD9D9"/>
+      <color rgb="FFFFB7B7"/>
+      <color rgb="FFFF9F9F"/>
+      <color rgb="FFFF7171"/>
+      <color rgb="FFFF5B5B"/>
+      <color rgb="FFEA0000"/>
       <color rgb="FFC80000"/>
       <color rgb="FF8E0000"/>
       <color rgb="FFDA0000"/>
-      <color rgb="FFEA0000"/>
       <color rgb="FFB80000"/>
-      <color rgb="FF820000"/>
-      <color rgb="FFB40000"/>
-      <color rgb="FFFFCD2F"/>
-      <color rgb="FFEEB000"/>
-      <color rgb="FFFAB900"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1546,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E8:P19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:F25"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,34 +1609,34 @@
   </cols>
   <sheetData>
     <row r="8" spans="5:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" spans="5:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="5:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="64">
         <v>0.78316617012023904</v>
       </c>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="5:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="66">
         <v>0.72559487819671598</v>
       </c>
       <c r="N11" s="1"/>
@@ -1593,10 +1645,10 @@
       </c>
     </row>
     <row r="12" spans="5:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="66">
         <v>0.67263108491897505</v>
       </c>
       <c r="N12" s="1"/>
@@ -1612,10 +1664,10 @@
       </c>
     </row>
     <row r="15" spans="5:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="56"/>
       <c r="P15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1682,86 +1734,86 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="H5" s="13" t="s">
+      <c r="E5" s="58"/>
+      <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="13">
         <v>0.69097125500000001</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>0.67195934310000005</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="H13" s="13" t="s">
+      <c r="E13" s="58"/>
+      <c r="H13" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <v>0.69097125500000001</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="15">
         <v>0.66643114800000003</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1778,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4169AE-4AA8-4534-B681-23B5A9F017A2}">
   <dimension ref="H9:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42:N42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,184 +1841,184 @@
   </cols>
   <sheetData>
     <row r="9" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="60"/>
     </row>
     <row r="10" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="19">
         <v>0.86954641455651105</v>
       </c>
     </row>
     <row r="12" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="21">
         <v>0.86557238351846999</v>
       </c>
     </row>
     <row r="13" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="21">
         <v>0.86326679413088103</v>
       </c>
     </row>
     <row r="18" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="32"/>
+      <c r="I18" s="60"/>
     </row>
     <row r="19" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="19">
         <v>0.86557238351846999</v>
       </c>
     </row>
     <row r="21" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="21">
         <v>0.85614194298157498</v>
       </c>
     </row>
     <row r="22" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="21">
         <v>0.83499153546792304</v>
       </c>
     </row>
     <row r="29" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="32"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H31" s="34" t="s">
+      <c r="H31" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="68" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H32" s="34"/>
-      <c r="I32" s="25" t="s">
+      <c r="H32" s="67"/>
+      <c r="I32" s="69" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H33" s="34"/>
-      <c r="I33" s="25" t="s">
+      <c r="H33" s="67"/>
+      <c r="I33" s="69" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H34" s="34"/>
-      <c r="I34" s="23" t="s">
+      <c r="H34" s="67"/>
+      <c r="I34" s="68" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="73" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H36" s="35"/>
-      <c r="I36" s="26" t="s">
+      <c r="H36" s="72"/>
+      <c r="I36" s="73" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H37" s="35"/>
-      <c r="I37" s="26" t="s">
+      <c r="H37" s="72"/>
+      <c r="I37" s="73" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H38" s="35"/>
-      <c r="I38" s="27" t="s">
+      <c r="H38" s="72"/>
+      <c r="I38" s="74" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H39" s="35"/>
-      <c r="I39" s="26" t="s">
+      <c r="H39" s="72"/>
+      <c r="I39" s="73" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="25" t="s">
+      <c r="I40" s="71" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="27" t="s">
+      <c r="I41" s="76" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H42" s="36"/>
-      <c r="I42" s="26" t="s">
+      <c r="H42" s="75"/>
+      <c r="I42" s="77" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H43" s="36"/>
-      <c r="I43" s="26" t="s">
+      <c r="H43" s="75"/>
+      <c r="I43" s="77" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H44" s="36"/>
-      <c r="I44" s="26" t="s">
+      <c r="H44" s="75"/>
+      <c r="I44" s="77" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2000,58 +2052,58 @@
   <sheetData>
     <row r="5" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="6:21" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="56"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="41"/>
     </row>
     <row r="7" spans="6:21" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="57"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="58"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="43"/>
     </row>
     <row r="8" spans="6:21" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="70"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reports/Final Report/all the tables.xlsx
+++ b/Reports/Final Report/all the tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/492f06f61623a65f/ASU/2021 Spring/Capstone/ASU_Adidas_CapstoneProject/Reports/Final Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="11_F25DC773A252ABDACC10488E119940B45BDE58EE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{17A6A62B-0FD4-419B-8B12-A87D5C653001}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="11_F25DC773A252ABDACC10488E119940B45BDE58EE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{51EA6A70-52B3-48A6-96BB-53C67783966D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>"makestar"</t>
   </si>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>Group 4</t>
+  </si>
+  <si>
+    <t>Product A</t>
+  </si>
+  <si>
+    <t>Product B</t>
+  </si>
+  <si>
+    <t>Product C</t>
   </si>
 </sst>
 </file>
@@ -883,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -982,6 +991,45 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,6 +1038,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1000,53 +1051,20 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,10 +1627,10 @@
   </cols>
   <sheetData>
     <row r="8" spans="5:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="5:16" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E9" s="20" t="s">
@@ -1624,19 +1642,19 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="5:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="57">
         <v>0.78316617012023904</v>
       </c>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="5:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="59">
         <v>0.72559487819671598</v>
       </c>
       <c r="N11" s="1"/>
@@ -1645,10 +1663,10 @@
       </c>
     </row>
     <row r="12" spans="5:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="59">
         <v>0.67263108491897505</v>
       </c>
       <c r="N12" s="1"/>
@@ -1664,10 +1682,10 @@
       </c>
     </row>
     <row r="15" spans="5:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="56"/>
+      <c r="F15" s="69"/>
       <c r="P15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1734,10 +1752,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="71"/>
       <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
@@ -1776,10 +1794,10 @@
       </c>
     </row>
     <row r="13" spans="4:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="58"/>
+      <c r="E13" s="71"/>
       <c r="H13" s="9" t="s">
         <v>25</v>
       </c>
@@ -1830,7 +1848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4169AE-4AA8-4534-B681-23B5A9F017A2}">
   <dimension ref="H9:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -1841,10 +1859,10 @@
   </cols>
   <sheetData>
     <row r="9" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="60"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="10" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="H10" s="16" t="s">
@@ -1879,10 +1897,10 @@
       </c>
     </row>
     <row r="18" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="60"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="H19" s="16" t="s">
@@ -1917,10 +1935,10 @@
       </c>
     </row>
     <row r="29" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="60"/>
+      <c r="I29" s="74"/>
     </row>
     <row r="30" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="H30" s="16" t="s">
@@ -1931,94 +1949,94 @@
       </c>
     </row>
     <row r="31" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="I31" s="68" t="s">
+      <c r="I31" s="60" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H32" s="67"/>
-      <c r="I32" s="69" t="s">
+      <c r="H32" s="76"/>
+      <c r="I32" s="61" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H33" s="67"/>
-      <c r="I33" s="69" t="s">
+      <c r="H33" s="76"/>
+      <c r="I33" s="61" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H34" s="67"/>
-      <c r="I34" s="68" t="s">
+      <c r="H34" s="76"/>
+      <c r="I34" s="60" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H35" s="72" t="s">
+      <c r="H35" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="73" t="s">
+      <c r="I35" s="64" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H36" s="72"/>
-      <c r="I36" s="73" t="s">
+      <c r="H36" s="77"/>
+      <c r="I36" s="64" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H37" s="72"/>
-      <c r="I37" s="73" t="s">
+      <c r="H37" s="77"/>
+      <c r="I37" s="64" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H38" s="72"/>
-      <c r="I38" s="74" t="s">
+      <c r="H38" s="77"/>
+      <c r="I38" s="65" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H39" s="72"/>
-      <c r="I39" s="73" t="s">
+      <c r="H39" s="77"/>
+      <c r="I39" s="64" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="71" t="s">
+      <c r="I40" s="63" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H41" s="75" t="s">
+      <c r="H41" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="76" t="s">
+      <c r="I41" s="66" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H42" s="75"/>
-      <c r="I42" s="77" t="s">
+      <c r="H42" s="72"/>
+      <c r="I42" s="67" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H43" s="75"/>
-      <c r="I43" s="77" t="s">
+      <c r="H43" s="72"/>
+      <c r="I43" s="67" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="8:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H44" s="75"/>
-      <c r="I44" s="77" t="s">
+      <c r="H44" s="72"/>
+      <c r="I44" s="67" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2038,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07220858-8A85-43D6-956A-CC73D448E4E5}">
-  <dimension ref="F5:U8"/>
+  <dimension ref="F5:U12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,6 +2123,67 @@
       <c r="T8" s="54"/>
       <c r="U8" s="55"/>
     </row>
+    <row r="9" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="6:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="41"/>
+    </row>
+    <row r="11" spans="6:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="43"/>
+    </row>
+    <row r="12" spans="6:21" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="55"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
